--- a/public/example/Kamojang - COT 1.xlsx
+++ b/public/example/Kamojang - COT 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhunakoshi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhunakoshi/Documents/learning/smartship-new/public/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B9A76E-DDFD-2A45-BBAC-7E6F087C55DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57476DE-78EB-5048-B00E-8B98A87E66FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="500" windowWidth="23180" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="4">
   <si>
     <t>TRIM (m)</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>ullage</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -105,10 +108,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -418,7 +421,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -430,39 +433,39 @@
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>-0.5</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>0.5</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>1.5</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>2</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>2.5</v>
       </c>
     </row>
@@ -607,12 +610,58 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
+      <c r="A8" s="5">
+        <v>695</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5">
+        <v>690</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
